--- a/Methane/Methane_fall2022.xlsx
+++ b/Methane/Methane_fall2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Methane/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53D35893-D351-E846-88DB-A1D034385459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0967B781-D906-C549-8999-64F98B71B4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7860" yWindow="3120" windowWidth="27240" windowHeight="16440" xr2:uid="{ED928149-F89A-A744-B4E9-9646057A4CE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Site</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Rep</t>
-  </si>
-  <si>
     <t>Date_collected</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>CH4_percSat</t>
+  </si>
+  <si>
+    <t>Bottle No</t>
   </si>
 </sst>
 </file>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96196ECA-9EF2-3D41-9BD5-772CB4692420}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,25 +514,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>146</v>
+      </c>
       <c r="D2" s="3">
         <v>44850</v>
       </c>
@@ -545,11 +548,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>167</v>
+      </c>
       <c r="D3" s="3">
         <v>44849</v>
       </c>
@@ -562,11 +568,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>186</v>
+      </c>
       <c r="D4" s="3">
         <v>44849</v>
       </c>
@@ -579,11 +588,14 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>189</v>
+      </c>
       <c r="D5" s="3">
         <v>44850</v>
       </c>
@@ -596,11 +608,14 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>233</v>
+      </c>
       <c r="D6" s="3">
         <v>44850</v>
       </c>
@@ -613,11 +628,14 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>253</v>
+      </c>
       <c r="D7" s="3">
         <v>44849</v>
       </c>
@@ -630,11 +648,14 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8">
+        <v>261</v>
+      </c>
       <c r="D8" s="3">
         <v>44850</v>
       </c>
@@ -647,10 +668,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="C9">
+        <v>149</v>
       </c>
       <c r="D9" s="3">
         <v>44895</v>
@@ -664,10 +688,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>151</v>
       </c>
       <c r="D10" s="3">
         <v>44895</v>
@@ -681,10 +708,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>152</v>
       </c>
       <c r="D11" s="3">
         <v>44895</v>
@@ -698,10 +728,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>156</v>
       </c>
       <c r="D12" s="3">
         <v>44895</v>
@@ -715,10 +748,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>159</v>
       </c>
       <c r="D13" s="3">
         <v>44895</v>
@@ -732,10 +768,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>172</v>
       </c>
       <c r="D14" s="3">
         <v>44894</v>
@@ -749,10 +788,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>175</v>
       </c>
       <c r="D15" s="3">
         <v>44896</v>
@@ -766,10 +808,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>178</v>
       </c>
       <c r="D16" s="3">
         <v>44894</v>
@@ -783,10 +828,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>182</v>
       </c>
       <c r="D17" s="3">
         <v>44894</v>
@@ -800,10 +848,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>183</v>
       </c>
       <c r="D18" s="3">
         <v>44894</v>
@@ -817,10 +868,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>188</v>
       </c>
       <c r="D19" s="3">
         <v>44894</v>
@@ -834,10 +888,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
       </c>
       <c r="D20" s="3">
         <v>44894</v>
@@ -851,10 +908,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>201</v>
       </c>
       <c r="D21" s="3">
         <v>44895</v>
@@ -868,10 +928,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>209</v>
       </c>
       <c r="D22" s="3">
         <v>44894</v>
@@ -885,10 +948,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>224</v>
       </c>
       <c r="D23" s="3">
         <v>44894</v>
@@ -902,10 +968,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>230</v>
       </c>
       <c r="D24" s="3">
         <v>44894</v>
@@ -919,10 +988,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>231</v>
       </c>
       <c r="D25" s="3">
         <v>44896</v>
@@ -936,10 +1008,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>245</v>
       </c>
       <c r="D26" s="3">
         <v>44894</v>
@@ -953,10 +1028,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>256</v>
       </c>
       <c r="D27" s="3">
         <v>44894</v>
@@ -970,10 +1048,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>257</v>
       </c>
       <c r="D28" s="3">
         <v>44895</v>
@@ -987,10 +1068,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>258</v>
       </c>
       <c r="D29" s="3">
         <v>44894</v>
@@ -1004,10 +1088,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>266</v>
       </c>
       <c r="D30" s="3">
         <v>44895</v>
@@ -1021,10 +1108,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" t="s">
-        <v>12</v>
+      <c r="C31">
+        <v>269</v>
       </c>
       <c r="D31" s="3">
         <v>44895</v>
@@ -1038,10 +1128,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>274</v>
       </c>
       <c r="D32" s="3">
         <v>44895</v>
@@ -1055,10 +1148,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>275</v>
       </c>
       <c r="D33" s="3">
         <v>44896</v>
@@ -1072,11 +1168,14 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
+      <c r="C34">
+        <v>276</v>
+      </c>
       <c r="D34" s="3">
         <v>44849</v>
       </c>
@@ -1089,11 +1188,14 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
+      <c r="C35">
+        <v>143</v>
+      </c>
       <c r="D35" s="3">
         <v>44850</v>
       </c>
@@ -1106,11 +1208,14 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
+      <c r="C36">
+        <v>147</v>
+      </c>
       <c r="D36" s="3">
         <v>44849</v>
       </c>
@@ -1123,11 +1228,14 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
+      <c r="C37">
+        <v>148</v>
+      </c>
       <c r="D37" s="3">
         <v>44850</v>
       </c>
@@ -1140,11 +1248,14 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
       <c r="D38" s="3">
         <v>44849</v>
       </c>
@@ -1157,11 +1268,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
+      <c r="C39">
+        <v>162</v>
+      </c>
       <c r="D39" s="3">
         <v>44850</v>
       </c>
@@ -1174,11 +1288,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
+      <c r="C40">
+        <v>166</v>
+      </c>
       <c r="D40" s="3">
         <v>44850</v>
       </c>
@@ -1191,10 +1308,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
         <v>27</v>
       </c>
-      <c r="B41" t="s">
-        <v>28</v>
+      <c r="C41">
+        <v>184</v>
       </c>
       <c r="D41" s="3">
         <v>44893</v>
@@ -1208,10 +1328,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
         <v>27</v>
       </c>
-      <c r="B42" t="s">
-        <v>28</v>
+      <c r="C42">
+        <v>185</v>
       </c>
       <c r="D42" s="3">
         <v>44893</v>
@@ -1225,11 +1348,14 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
+      <c r="C43">
+        <v>187</v>
+      </c>
       <c r="D43" s="3">
         <v>44850</v>
       </c>
@@ -1242,11 +1368,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
+      <c r="C44">
+        <v>190</v>
+      </c>
       <c r="D44" s="3">
         <v>44850</v>
       </c>
@@ -1259,11 +1388,14 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
+      <c r="C45">
+        <v>197</v>
+      </c>
       <c r="D45" s="3">
         <v>44850</v>
       </c>
@@ -1276,13 +1408,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E46" t="e">
         <v>#VALUE!</v>
@@ -1293,11 +1428,14 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
+      <c r="C47">
+        <v>210</v>
+      </c>
       <c r="D47" s="3">
         <v>44850</v>
       </c>
@@ -1310,13 +1448,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="e">
         <v>#VALUE!</v>
@@ -1327,10 +1468,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C49">
+        <v>215</v>
       </c>
       <c r="D49" s="3">
         <v>44893</v>
@@ -1344,11 +1488,14 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
+      <c r="C50">
+        <v>217</v>
+      </c>
       <c r="D50" s="3">
         <v>44850</v>
       </c>
@@ -1361,11 +1508,14 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
+      <c r="C51">
+        <v>225</v>
+      </c>
       <c r="D51" s="3">
         <v>44850</v>
       </c>
@@ -1378,11 +1528,14 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
+      <c r="C52">
+        <v>227</v>
+      </c>
       <c r="D52" s="3">
         <v>44850</v>
       </c>
@@ -1395,11 +1548,14 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
+      <c r="C53">
+        <v>237</v>
+      </c>
       <c r="D53" s="3">
         <v>44849</v>
       </c>
@@ -1412,11 +1568,14 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
+      <c r="C54">
+        <v>241</v>
+      </c>
       <c r="D54" s="3">
         <v>44849</v>
       </c>
@@ -1429,11 +1588,14 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
+      <c r="C55">
+        <v>243</v>
+      </c>
       <c r="D55" s="3">
         <v>44849</v>
       </c>
@@ -1446,11 +1608,14 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
+      <c r="C56">
+        <v>260</v>
+      </c>
       <c r="D56" s="3">
         <v>44850</v>
       </c>
@@ -1463,10 +1628,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C57">
+        <v>290</v>
       </c>
       <c r="D57" s="3">
         <v>44893</v>
@@ -1479,28 +1647,57 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>292</v>
+      </c>
       <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>205</v>
+      </c>
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>192</v>
+      </c>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>179</v>
+      </c>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>239</v>
+      </c>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>212</v>
+      </c>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>251</v>
+      </c>
       <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
